--- a/Modelo relacional M-R.xlsx
+++ b/Modelo relacional M-R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05807075-9DE0-4718-A969-0B3175DA2376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CF805A-B8C4-4AF2-AF0F-C04F2421C1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FBD40ED5-9BFF-4BD4-A771-7F150652FE2B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Atraccion</t>
   </si>
@@ -42,6 +42,9 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Operador</t>
+  </si>
+  <si>
     <t>Orden de Servicio</t>
   </si>
   <si>
@@ -69,18 +72,12 @@
     <t>Capacidad</t>
   </si>
   <si>
-    <t>NIT</t>
-  </si>
-  <si>
     <t>Nacionalidad</t>
   </si>
   <si>
     <t>Puesto</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Inicio Mantenimiento</t>
   </si>
   <si>
@@ -103,6 +100,42 @@
   </si>
   <si>
     <t>Tecnico</t>
+  </si>
+  <si>
+    <t>Taquilla</t>
+  </si>
+  <si>
+    <t>SalarioOperador</t>
+  </si>
+  <si>
+    <t>SalarioTaquilla</t>
+  </si>
+  <si>
+    <t>IdBrazalete</t>
+  </si>
+  <si>
+    <t>IdOrden</t>
+  </si>
+  <si>
+    <t>IdTecnico</t>
+  </si>
+  <si>
+    <t>IDAtraccion</t>
+  </si>
+  <si>
+    <t>NIT Proveedor</t>
+  </si>
+  <si>
+    <t>(1.1)</t>
+  </si>
+  <si>
+    <t>(N.M)</t>
+  </si>
+  <si>
+    <t>(1.N)</t>
+  </si>
+  <si>
+    <t>(N.1)</t>
   </si>
 </sst>
 </file>
@@ -118,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,13 +172,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,13 +216,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,6 +239,443 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>98845</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>71887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>898585</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>71887</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto de flecha 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD50114-8695-DD3F-4E06-F2AAC3616195}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1626439" y="5355566"/>
+          <a:ext cx="799740" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431321</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>44929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>449292</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161745</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7735E78C-5188-3A71-F97F-0D69DE427F97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2938373" y="4385094"/>
+          <a:ext cx="17971" cy="682925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>449292</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>62901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>449292</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>170731</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector recto de flecha 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BFF0C4A-6413-4FEB-F500-B0B2CA199C07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2956344" y="2893443"/>
+          <a:ext cx="0" cy="673939"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>89859</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>961486</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107830</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto de flecha 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C58238B-424F-1674-94FF-080431173766}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1617453" y="2372264"/>
+          <a:ext cx="871627" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>134788</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>700897</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107830</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector recto de flecha 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D53317A-A53C-7992-2670-43A468999D1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3621297" y="2551981"/>
+          <a:ext cx="566109" cy="8986"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>548136</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>557122</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>134788</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Conector recto de flecha 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BCCBFF-F338-F50B-590F-354C12C6E71C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4798443" y="1509623"/>
+          <a:ext cx="8986" cy="512193"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>530165</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>62901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>539151</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>107830</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector recto de flecha 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9886821-9F55-17FD-BC6C-569491E8AAEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4780472" y="3270849"/>
+          <a:ext cx="8986" cy="988443"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>80872</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1186132</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>116816</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Conector recto de flecha 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4482CB-7E53-B354-E3B1-CED780FEBE0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5526297" y="5014104"/>
+          <a:ext cx="1105260" cy="8986"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216E7338-B6DA-4DAB-9AC1-83F4E1745135}">
-  <dimension ref="B3:H25"/>
+  <dimension ref="B3:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="106" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,13 +991,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F4" s="5" t="s">
-        <v>14</v>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -543,17 +1020,25 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -563,19 +1048,22 @@
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>1</v>
@@ -586,86 +1074,149 @@
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="5" t="s">
+      <c r="F16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="F30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>